--- a/oop-project/src/image/book/Bookname.xlsx
+++ b/oop-project/src/image/book/Bookname.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0794ec55ce9ee67/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0794ec55ce9ee67/Documents/GitHub/OOP-project/oop-project/src/image/book/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{75C47C25-7132-4B7D-99B4-BB0B74B08D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF3B8DB4-8EE6-4723-9BFB-89A8B9676D84}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{75C47C25-7132-4B7D-99B4-BB0B74B08D89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B81422E4-7DD8-4549-8E7C-6A4F4FEA4A18}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{06DF442A-8B04-4EF4-BB6B-9F83A004EE5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="176">
   <si>
     <t>เลขหนังสือ</t>
   </si>
@@ -370,6 +370,189 @@
   </si>
   <si>
     <t>https://www.naiin.com/product/detail/515857</t>
+  </si>
+  <si>
+    <t>คัมภีร์ปีฉลู ปรับชะตา-เสริมดวง ปี 2564</t>
+  </si>
+  <si>
+    <t>ซินแส</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/516529</t>
+  </si>
+  <si>
+    <t>วิวาห์ของลาล่า เล่ม 1</t>
+  </si>
+  <si>
+    <t>ทาเมโค</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/516030</t>
+  </si>
+  <si>
+    <t>วิวาห์ของลาล่า เล่ม 2 Mg</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/516028</t>
+  </si>
+  <si>
+    <t>1,000 โจทบ์เด็ดติวเข้มก่อนสอบ O-NET ป.6</t>
+  </si>
+  <si>
+    <t>รังสรรค์ สิทธิชัยโอภาส</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/510488</t>
+  </si>
+  <si>
+    <t>แนวข้อสอบติวเข้ม คณิต สสวท. ป.6</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/513804</t>
+  </si>
+  <si>
+    <t>คู่มือติวภาษาไทย ป.6 เตรียมสอบเข้า ม.1 โรงเรียนดัง ฉบับสมบูรณ์</t>
+  </si>
+  <si>
+    <t>พิชชธร ปะทะวัง (ครูโดนัท)</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/512425</t>
+  </si>
+  <si>
+    <t>ติวเข้มแนวข้อสอบไวยากรณ์ภาษาอังกฤษ ป.6</t>
+  </si>
+  <si>
+    <t>กนิษฐ์ ภาณุสัณห์</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/512711</t>
+  </si>
+  <si>
+    <t>Easy Note Science ป.6 พิชิตสอบเข้า ม.1</t>
+  </si>
+  <si>
+    <t>คุณครูบัวสวรรค์</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/511738</t>
+  </si>
+  <si>
+    <t>ตีแผ่แบไต๋ ข้อสอบภาษาอังกฤษ พิชิต O-NET ป.6</t>
+  </si>
+  <si>
+    <t>อาจารย์ลูกปัด</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/512930</t>
+  </si>
+  <si>
+    <t>AMAZING WORLD ตะลุยกาแล็กซี</t>
+  </si>
+  <si>
+    <t>กอง บก.เดียร์ เดียร์</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/222111</t>
+  </si>
+  <si>
+    <t>AMAZING WORLD เปิดโลกใต้ทะเลน้ำลึก</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/228406</t>
+  </si>
+  <si>
+    <t>AMAZING WORLD เปิดโลกไดโนเสาร์กินเนื้อ</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/210716</t>
+  </si>
+  <si>
+    <t>การเงินการลงทุนเล่มนี้ง่ายดี</t>
+  </si>
+  <si>
+    <t>TactSchool</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/185077</t>
+  </si>
+  <si>
+    <t>Sweet Pop รันรัน ตอน ฉันจะเป็น YouTuber</t>
+  </si>
+  <si>
+    <t>TOFU S STUDIO</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/512317</t>
+  </si>
+  <si>
+    <t>เปิดโลกสิ่งประดิษฐ์แบบ STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gerry Bailey &amp; Felicia Law</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/231183</t>
+  </si>
+  <si>
+    <t>30 โครงการระบบนิเวศรอบโลก จากขั้วโลกเหนือจดขั้วโลกใต้</t>
+  </si>
+  <si>
+    <t>Janice VanCleave</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/514482</t>
+  </si>
+  <si>
+    <t>แก๊งซ่าท้าทดลอง เล่ม 3 ปริศนาแห่งแสง</t>
+  </si>
+  <si>
+    <t>Gomdori co.</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/513183</t>
+  </si>
+  <si>
+    <t>KILLING THE RISING SUN ยุทธการดับอาทิตย์อุทัย</t>
+  </si>
+  <si>
+    <t>บิลล์ โอ'ไรลีย์และมาร์ติน ดูการ์ด</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/234576</t>
+  </si>
+  <si>
+    <t>สามก๊ก ฉบับเฉินโซว่</t>
+  </si>
+  <si>
+    <t>ยศไกร ส.ตันสกุล</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/512929</t>
+  </si>
+  <si>
+    <t>ยุทธการวิหคกู้แผ่นดิน เล่ม 1</t>
+  </si>
+  <si>
+    <t>ไห่เฟย</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/513082</t>
+  </si>
+  <si>
+    <t>การทำน้ำตกและลำธารในสวน waterfall &amp; stream</t>
+  </si>
+  <si>
+    <t>ขวัญชัย จิตสำรวย</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/476631</t>
+  </si>
+  <si>
+    <t>ระบบให้น้ำในสวน Garden Irrigation</t>
+  </si>
+  <si>
+    <t>https://www.naiin.com/product/detail/505896</t>
   </si>
 </sst>
 </file>
@@ -412,7 +595,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -455,12 +638,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,6 +686,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271AE327-DCEA-40FF-A180-4905F18F93E9}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -1196,110 +1398,308 @@
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="B31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>52</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
